--- a/BitexenChallenge-main/Task1/Test Case.xlsx
+++ b/BitexenChallenge-main/Task1/Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ertuğrul\Desktop\BitexenChallenge-main\BitexenChallenge-main\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F7A480-4905-454A-B20A-7FB665B928F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD8161C-E079-46F4-BE66-42BE8AC1109F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,13 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -89,13 +82,7 @@
     <t>Fonksiyon: The Functionality of  Trade Pane Area</t>
   </si>
   <si>
-    <t>Tester: Erdi Çakmak</t>
-  </si>
-  <si>
     <t>Last Editor:</t>
-  </si>
-  <si>
-    <t>Date:</t>
   </si>
   <si>
     <t xml:space="preserve"> Pre - Condition: 
@@ -214,13 +201,19 @@
   </si>
   <si>
     <t>Test Cases are on the next page.</t>
+  </si>
+  <si>
+    <t>Tester: Ertuğrul Ersoy</t>
+  </si>
+  <si>
+    <t>Date:2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +697,52 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -716,38 +755,53 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -755,9 +809,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,66 +821,8 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1117,10 +1110,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="105" customWidth="1"/>
@@ -1130,203 +1123,203 @@
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="28.95" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.2" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="58.2" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.95" customHeight="1">
+      <c r="A7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="33" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="55"/>
+    <row r="10" spans="1:5" ht="44.25" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="55"/>
+        <v>34</v>
+      </c>
+      <c r="D10" s="28"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="55"/>
+    <row r="11" spans="1:5" ht="44.25" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="59"/>
-    </row>
-    <row r="14" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-    </row>
-    <row r="15" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-    </row>
-    <row r="16" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1335,18 +1328,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="D13:E15"/>
     <mergeCell ref="A4:E6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1362,7 +1355,7 @@
       <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1375,9 +1368,9 @@
     <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -1404,458 +1397,464 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="38"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="38"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="38"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="38"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="38"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="38"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="38"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="38"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="38"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="38"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="38"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="38"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="57" t="s">
+      <c r="D22" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="38"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="38"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="38"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="38"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="38"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="38"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="38"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="5" t="s">
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="38"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="41"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="41"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="41"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H12:H20"/>
+    <mergeCell ref="G22:G30"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="G12:G20"/>
     <mergeCell ref="A2:A30"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="I2:I10"/>
@@ -1872,12 +1871,6 @@
     <mergeCell ref="B22:B30"/>
     <mergeCell ref="C22:C30"/>
     <mergeCell ref="D22:D30"/>
-    <mergeCell ref="G22:G30"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="G12:G20"/>
-    <mergeCell ref="H12:H20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{9DA43F36-848E-4688-B0EF-6567BC951886}"/>
